--- a/playlist_per_work/coor001come04.xlsx
+++ b/playlist_per_work/coor001come04.xlsx
@@ -491,11 +491,7 @@
           <t>Israel</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -509,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#amal.       marma</t>
+          <t>#israel.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amal.       Marma</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Israel.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -535,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#precatio</t>
+          <t>#aristobulus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Precatio</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Aristobulus</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -561,19 +549,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#marma</t>
+          <t>#amassai</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marma</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Amassai</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -587,19 +571,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#eubulus</t>
+          <t>#cogitatio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eubulus</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cogitatio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -613,19 +593,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#amal-marma-te-zamen</t>
+          <t>#iohanna</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Amal Marma te zamen</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Iohanna</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -639,19 +615,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#amal</t>
+          <t>#cognitio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Amal</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cognitio</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -665,19 +637,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#bode</t>
+          <t>#amal-marma-te-zamen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bode</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Amal Marma te zamen</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -691,19 +659,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#iohanna</t>
+          <t>#amal.       marma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Iohanna</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Amal.       Marma</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -717,19 +681,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#achazib</t>
+          <t>#eubulus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Achazib</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eubulus</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -743,19 +703,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#aristobolus</t>
+          <t>#achazib</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aristobolus</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Achazib</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -769,19 +725,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#demophon</t>
+          <t>#bode</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Demophon</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Bode</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -795,19 +747,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#amassai</t>
+          <t>#amal.       marma.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Amassai</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Amal.       Marma.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -821,19 +769,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#cogitatio</t>
+          <t>#aristobolus</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cogitatio</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Aristobolus</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -847,19 +791,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#cognitio</t>
+          <t>#precatio</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cognitio</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Precatio</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -873,19 +813,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#neregel</t>
+          <t>#amal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Neregel</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -899,12 +835,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#amal.       marma</t>
+          <t>#neregel</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Amal.       Marma.</t>
+          <t>Neregel</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -921,12 +857,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#israel</t>
+          <t>#marma</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Israel.</t>
+          <t>Marma</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -943,12 +879,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#aristobolus</t>
+          <t>#demophon</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aristobulus</t>
+          <t>Demophon</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>

--- a/playlist_per_work/coor001come04.xlsx
+++ b/playlist_per_work/coor001come04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#israel</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#bode</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bode</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#israel.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Israel.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#amal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#aristobulus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Aristobulus</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#israel.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Israel.</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,19 +557,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#amassai</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Amassai</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#cogitatio</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cogitatio</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#cogitatio</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cogitatio</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#amal.       marma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Amal.       Marma</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#iohanna</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Iohanna</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#israel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,19 +626,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#cognitio</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cognitio</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>#eubulus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eubulus</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -637,19 +649,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#amal-marma-te-zamen</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Amal Marma te zamen</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#amal.       marma.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Amal.       Marma.</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -659,19 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#amal.       marma</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Amal.       Marma</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>#amassai</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Amassai</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,19 +695,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#eubulus</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Eubulus</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>#aristobulus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Aristobulus</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,19 +718,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#achazib</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Achazib</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>#aristobolus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Aristobolus</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,19 +741,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#bode</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bode</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#marma</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Marma</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,19 +764,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#amal.       marma.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Amal.       Marma.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>#amal-marma-te-zamen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Amal Marma te zamen</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -769,19 +787,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#aristobolus</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Aristobolus</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>#achazib</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Achazib</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,16 +813,17 @@
           <t>#precatio</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Precatio</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -813,19 +833,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#amal</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Amal</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>#demophon</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Demophon</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -835,19 +856,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#neregel</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Neregel</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>#iohanna</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Iohanna</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -857,19 +879,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#marma</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Marma</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>#cognitio</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cognitio</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -879,19 +902,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#demophon</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Demophon</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>#neregel</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Neregel</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/playlist_per_work/coor001come04.xlsx
+++ b/playlist_per_work/coor001come04.xlsx
@@ -488,13 +488,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#bode</t>
+          <t>#iohanna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bode</t>
+          <t>Iohanna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -511,13 +511,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#amal</t>
+          <t>#demophon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Demophon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -534,13 +534,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#israel.</t>
+          <t>#precatio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Israel.</t>
+          <t>Precatio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -557,13 +557,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#cogitatio</t>
+          <t>#israel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cogitatio</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -603,13 +603,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#israel</t>
+          <t>#aristobulus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Aristobulus</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -626,13 +626,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#eubulus</t>
+          <t>#marma</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eubulus</t>
+          <t>Marma</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -672,13 +672,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#amassai</t>
+          <t>#amal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Amassai</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -695,13 +695,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#aristobulus</t>
+          <t>#eubulus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aristobulus</t>
+          <t>Eubulus</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -718,13 +718,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#aristobolus</t>
+          <t>#amassai</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aristobolus</t>
+          <t>Amassai</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -741,13 +741,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#marma</t>
+          <t>#neregel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Marma</t>
+          <t>Neregel</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -764,13 +764,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#amal-marma-te-zamen</t>
+          <t>#aristobolus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Amal Marma te zamen</t>
+          <t>Aristobolus</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -787,13 +787,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#achazib</t>
+          <t>#amal-marma-te-zamen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Achazib</t>
+          <t>Amal Marma te zamen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -810,13 +810,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#precatio</t>
+          <t>#bode</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Precatio</t>
+          <t>Bode</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -833,13 +833,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#demophon</t>
+          <t>#achazib</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Demophon</t>
+          <t>Achazib</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -856,13 +856,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#iohanna</t>
+          <t>#israel.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Iohanna</t>
+          <t>Israel.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -902,13 +902,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#neregel</t>
+          <t>#cogitatio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Neregel</t>
+          <t>Cogitatio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>

--- a/playlist_per_work/coor001come04.xlsx
+++ b/playlist_per_work/coor001come04.xlsx
@@ -488,13 +488,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#iohanna</t>
+          <t>#achazib</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Iohanna</t>
+          <t>Achazib</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -511,13 +511,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#demophon</t>
+          <t>#israel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Demophon</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -534,13 +534,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#precatio</t>
+          <t>#cognitio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Precatio</t>
+          <t>Cognitio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -557,13 +557,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#israel</t>
+          <t>#eubulus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Eubulus</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -580,13 +580,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#amal.       marma</t>
+          <t>#iohanna</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Amal.       Marma</t>
+          <t>Iohanna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -603,13 +603,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#aristobulus</t>
+          <t>#amassai</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aristobulus</t>
+          <t>Amassai</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -626,13 +626,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#marma</t>
+          <t>#aristobulus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Marma</t>
+          <t>Aristobulus</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -649,13 +649,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#amal.       marma.</t>
+          <t>#israel.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amal.       Marma.</t>
+          <t>Israel.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -672,13 +672,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#amal</t>
+          <t>#demophon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Demophon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -695,13 +695,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#eubulus</t>
+          <t>#cogitatio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Eubulus</t>
+          <t>Cogitatio</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -718,13 +718,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#amassai</t>
+          <t>#precatio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Amassai</t>
+          <t>Precatio</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -741,13 +741,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#neregel</t>
+          <t>#amal-marma-te-zamen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Neregel</t>
+          <t>Amal Marma te zamen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -764,13 +764,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#aristobolus</t>
+          <t>#marma</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aristobolus</t>
+          <t>Marma</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -787,13 +787,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#amal-marma-te-zamen</t>
+          <t>#bode</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Amal Marma te zamen</t>
+          <t>Bode</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -810,13 +810,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#bode</t>
+          <t>#amal.       marma</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bode</t>
+          <t>Amal.       Marma</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -833,13 +833,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#achazib</t>
+          <t>#amal.       marma.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Achazib</t>
+          <t>Amal.       Marma.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -856,13 +856,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#israel.</t>
+          <t>#neregel</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Israel.</t>
+          <t>Neregel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -879,13 +879,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#cognitio</t>
+          <t>#aristobolus</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cognitio</t>
+          <t>Aristobolus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -902,13 +902,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#cogitatio</t>
+          <t>#amal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cogitatio</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>

--- a/playlist_per_work/coor001come04.xlsx
+++ b/playlist_per_work/coor001come04.xlsx
@@ -488,13 +488,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#achazib</t>
+          <t>#cognitio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Achazib</t>
+          <t>Cognitio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -511,13 +511,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#israel</t>
+          <t>#iohanna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Iohanna</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -534,13 +534,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#cognitio</t>
+          <t>#aristobulus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cognitio</t>
+          <t>Aristobulus</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -557,13 +557,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#eubulus</t>
+          <t>#demophon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eubulus</t>
+          <t>Demophon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -580,13 +580,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#iohanna</t>
+          <t>#neregel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Iohanna</t>
+          <t>Neregel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -626,13 +626,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#aristobulus</t>
+          <t>#amal-marma-te-zamen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aristobulus</t>
+          <t>Amal Marma te zamen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -649,13 +649,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#israel.</t>
+          <t>#precatio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Israel.</t>
+          <t>Precatio</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -672,13 +672,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#demophon</t>
+          <t>#israel.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Demophon</t>
+          <t>Israel.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -695,13 +695,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#cogitatio</t>
+          <t>#marma</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cogitatio</t>
+          <t>Marma</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -718,13 +718,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#precatio</t>
+          <t>#amal.       marma</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Precatio</t>
+          <t>Amal.       Marma</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -741,13 +741,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#amal-marma-te-zamen</t>
+          <t>#amal.       marma.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Amal Marma te zamen</t>
+          <t>Amal.       Marma.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -764,13 +764,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#marma</t>
+          <t>#bode</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Marma</t>
+          <t>Bode</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -787,13 +787,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#bode</t>
+          <t>#eubulus</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bode</t>
+          <t>Eubulus</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -810,13 +810,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#amal.       marma</t>
+          <t>#amal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Amal.       Marma</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -833,13 +833,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#amal.       marma.</t>
+          <t>#cogitatio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amal.       Marma.</t>
+          <t>Cogitatio</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -856,13 +856,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#neregel</t>
+          <t>#israel</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Neregel</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -879,13 +879,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#aristobolus</t>
+          <t>#achazib</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aristobolus</t>
+          <t>Achazib</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -902,13 +902,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#amal</t>
+          <t>#aristobolus</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Aristobolus</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
